--- a/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.8 orgtree local/org_military_ngo.xlsx
+++ b/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.8 orgtree local/org_military_ngo.xlsx
@@ -560,12 +560,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>지배인,당책임비서</t>
+          <t>당책임비서,지배인</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>기사장,당비서</t>
+          <t>당비서,기사장</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -696,12 +696,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>지배인,당책임비서</t>
+          <t>당책임비서,지배인</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>기사장,당비서</t>
+          <t>당비서,기사장</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>소장,초급당비서</t>
+          <t>초급당비서,소장</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>부총장,제1부총장</t>
+          <t>제1부총장,부총장</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>위원장,대표</t>
+          <t>대표,위원장</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -3402,7 +3402,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>교수,명예교수,교원,실장,상급교원</t>
+          <t>명예교수,교수,실장,상급교원,교원</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -4761,7 +4761,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>제1부총국장,부총국장</t>
+          <t>부총국장,제1부총국장</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>부상,제1부상</t>
+          <t>제1부상,부상</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -6773,7 +6773,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>기사장,부지배인</t>
+          <t>부지배인,기사장</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -7496,12 +7496,12 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>사령관,연대장,군단장</t>
+          <t>군단장,연대장,사령관</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>부사령관,부군단장</t>
+          <t>부군단장,부사령관</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -7669,7 +7669,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>기사장,부지배인</t>
+          <t>부지배인,기사장</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>기사장,부지배인</t>
+          <t>부지배인,기사장</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -7829,7 +7829,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>기사장,부지배인</t>
+          <t>부지배인,기사장</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -7989,7 +7989,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>기사장,부지배인</t>
+          <t>부지배인,기사장</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -8149,7 +8149,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>제1부단장,부단장</t>
+          <t>부단장,제1부단장</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -8309,12 +8309,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>부국장,제1부국장,상무부국장</t>
+          <t>부국장,상무부국장,제1부국장</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>선전부총국장,군관,후보위원,선전부장,선전부국장</t>
+          <t>선전부국장,선전부총국장,군관,선전부장,후보위원</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>재1부총참모장,부총참모장,제1부총참모장</t>
+          <t>재1부총참모장,제1부총참모장,부총참모장</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -8465,7 +8465,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>부사령관,제1부사령관</t>
+          <t>제1부사령관,부사령관</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -8702,7 +8702,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>정치위원,참모장</t>
+          <t>참모장,정치위원</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -8785,7 +8785,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>부사령관,서해함대사령관,동해함대사령관,부참모장</t>
+          <t>동해함대사령관,부참모장,서해함대사령관,부사령관</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -8864,7 +8864,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>사령관,호위사령관,참모장</t>
+          <t>호위사령관,참모장,사령관</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -11508,7 +11508,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>사령관,참모장</t>
+          <t>참모장,사령관</t>
         </is>
       </c>
       <c r="H142" t="inlineStr"/>
@@ -11670,7 +11670,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>정치위원,정치부장</t>
+          <t>정치부장,정치위원</t>
         </is>
       </c>
       <c r="J144" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>사령관,참모장</t>
+          <t>참모장,사령관</t>
         </is>
       </c>
       <c r="H161" t="inlineStr"/>
@@ -12959,7 +12959,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -13396,7 +13396,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>사단장,참모장</t>
+          <t>참모장,사단장</t>
         </is>
       </c>
       <c r="H168" t="inlineStr"/>
@@ -13463,7 +13463,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -14491,7 +14491,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -14563,7 +14563,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -15060,7 +15060,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>총국장,국장</t>
+          <t>국장,총국장</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -15309,7 +15309,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>제1부총국장,부총국장</t>
+          <t>부총국장,제1부총국장</t>
         </is>
       </c>
       <c r="I192" t="inlineStr"/>
@@ -16283,7 +16283,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>연대장,참모장</t>
+          <t>참모장,연대장</t>
         </is>
       </c>
       <c r="H205" t="inlineStr"/>
@@ -16427,7 +16427,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -16571,7 +16571,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -18484,12 +18484,12 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>위원장,1비서,조직대표</t>
+          <t>위원장,조직대표,1비서</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>부위원장,비서</t>
+          <t>비서,부위원장</t>
         </is>
       </c>
       <c r="I231" t="inlineStr"/>
@@ -18828,7 +18828,7 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>위원장,중앙위원장</t>
+          <t>중앙위원장,위원장</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -18916,7 +18916,7 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>위원장,초급당비서</t>
+          <t>초급당비서,위원장</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
@@ -18926,7 +18926,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>상무위원,서기장</t>
+          <t>서기장,상무위원</t>
         </is>
       </c>
       <c r="J236" t="inlineStr"/>
@@ -19846,7 +19846,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>중앙위원,상무위원,서기장</t>
+          <t>서기장,중앙위원,상무위원</t>
         </is>
       </c>
       <c r="J247" t="inlineStr"/>
@@ -22664,17 +22664,17 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>위원장,초급당비서</t>
+          <t>초급당비서,위원장</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>부위원장,당비서</t>
+          <t>당비서,부위원장</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>과장,중앙위원,집행위원,부장,부부장</t>
+          <t>집행위원,중앙위원,과장,부장,부부장</t>
         </is>
       </c>
       <c r="J281" t="inlineStr"/>
@@ -22846,7 +22846,7 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>부장,부부장</t>
+          <t>부부장,부장</t>
         </is>
       </c>
       <c r="J283" t="inlineStr"/>
@@ -23418,7 +23418,7 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>서기장,명예부위원장,서기,집행위원,부서기장,위원,사무차장</t>
+          <t>집행위원,위원,부서기장,서기,서기장,명예부위원장,사무차장</t>
         </is>
       </c>
       <c r="J290" t="inlineStr"/>
@@ -23590,7 +23590,7 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>명예총재,집행총국장,대변인,상임고문,사무총장</t>
+          <t>명예총재,대변인,집행총국장,상임고문,사무총장</t>
         </is>
       </c>
       <c r="J292" t="inlineStr"/>
@@ -23674,7 +23674,7 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>간부,서기장,부서기장,서기장대리,집행위원,상무위원,위원</t>
+          <t>집행위원,위원,상무위원,간부,부서기장,서기장,서기장대리</t>
         </is>
       </c>
       <c r="J293" t="inlineStr"/>
@@ -23926,7 +23926,7 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>위원,서기장,부서기장</t>
+          <t>부서기장,서기장,위원</t>
         </is>
       </c>
       <c r="J296" t="inlineStr"/>
@@ -24164,17 +24164,17 @@
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>위원장,초급당비서</t>
+          <t>초급당비서,위원장</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>부위원장,비서</t>
+          <t>비서,부위원장</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>위원,임원,서기장</t>
+          <t>서기장,임원,위원</t>
         </is>
       </c>
       <c r="J299" t="inlineStr"/>
@@ -24570,7 +24570,7 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>명예위원장,서기장</t>
+          <t>서기장,명예위원장</t>
         </is>
       </c>
       <c r="J304" t="inlineStr"/>
@@ -25481,12 +25481,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>부위원장,제1부위원장</t>
+          <t>제1부위원장,부위원장</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>부장,위원</t>
+          <t>위원,부장</t>
         </is>
       </c>
       <c r="J315" t="inlineStr"/>
@@ -26574,7 +26574,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>서기장,비서실장,책임참사,상무위원,고문</t>
+          <t>비서실장,상무위원,책임참사,서기장,고문</t>
         </is>
       </c>
       <c r="J328" t="inlineStr"/>
@@ -27073,7 +27073,7 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>부위원장,제1부위원장</t>
+          <t>제1부위원장,부위원장</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
@@ -27219,7 +27219,7 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
@@ -28726,7 +28726,7 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>고문,상무위원,서기장</t>
+          <t>서기장,상무위원,고문</t>
         </is>
       </c>
       <c r="J354" t="inlineStr"/>
@@ -28885,7 +28885,7 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>부위원장,부회장</t>
+          <t>부회장,부위원장</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
@@ -32698,7 +32698,7 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>상무위원,서기장</t>
+          <t>서기장,상무위원</t>
         </is>
       </c>
       <c r="J403" t="inlineStr"/>
@@ -32776,7 +32776,7 @@
       </c>
       <c r="G404" t="inlineStr">
         <is>
-          <t>부장,위원장</t>
+          <t>위원장,부장</t>
         </is>
       </c>
       <c r="H404" t="inlineStr">
@@ -32786,7 +32786,7 @@
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>상무위원,서기장</t>
+          <t>서기장,상무위원</t>
         </is>
       </c>
       <c r="J404" t="inlineStr"/>
@@ -32958,7 +32958,7 @@
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>고문,서기장</t>
+          <t>서기장,고문</t>
         </is>
       </c>
       <c r="J406" t="inlineStr"/>
@@ -34204,13 +34204,13 @@
       </c>
       <c r="G421" t="inlineStr">
         <is>
-          <t>초급당비서,의장</t>
+          <t>의장,초급당비서</t>
         </is>
       </c>
       <c r="H421" t="inlineStr"/>
       <c r="I421" t="inlineStr">
         <is>
-          <t>중앙위원,위원,서기국장,상무위원</t>
+          <t>서기국장,중앙위원,위원,상무위원</t>
         </is>
       </c>
       <c r="J421" t="inlineStr"/>
@@ -35847,7 +35847,7 @@
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G444" t="inlineStr">
@@ -36060,7 +36060,7 @@
       </c>
       <c r="G447" t="inlineStr">
         <is>
-          <t>책임비서,지배인,당책임비서</t>
+          <t>책임비서,당책임비서,지배인</t>
         </is>
       </c>
       <c r="H447" t="inlineStr">
@@ -36200,7 +36200,7 @@
       </c>
       <c r="G449" t="inlineStr">
         <is>
-          <t>초급당비서,비서</t>
+          <t>비서,초급당비서</t>
         </is>
       </c>
       <c r="H449" t="inlineStr"/>
@@ -37024,7 +37024,7 @@
       </c>
       <c r="G461" t="inlineStr">
         <is>
-          <t>초급당비서,비서</t>
+          <t>비서,초급당비서</t>
         </is>
       </c>
       <c r="H461" t="inlineStr"/>
@@ -37500,7 +37500,7 @@
       </c>
       <c r="G468" t="inlineStr">
         <is>
-          <t>지배인,대표</t>
+          <t>대표,지배인</t>
         </is>
       </c>
       <c r="H468" t="inlineStr"/>
@@ -37708,7 +37708,7 @@
       </c>
       <c r="G471" t="inlineStr">
         <is>
-          <t>초급당비서,비서</t>
+          <t>비서,초급당비서</t>
         </is>
       </c>
       <c r="H471" t="inlineStr"/>
@@ -37980,7 +37980,7 @@
       </c>
       <c r="G475" t="inlineStr">
         <is>
-          <t>지배인,대표</t>
+          <t>대표,지배인</t>
         </is>
       </c>
       <c r="H475" t="inlineStr"/>
@@ -38818,7 +38818,7 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>실장,연구원,위원</t>
+          <t>연구원,위원,실장</t>
         </is>
       </c>
       <c r="J487" t="inlineStr"/>
@@ -39236,7 +39236,7 @@
       </c>
       <c r="G493" t="inlineStr">
         <is>
-          <t>위원장,관장,비서</t>
+          <t>관장,비서,위원장</t>
         </is>
       </c>
       <c r="H493" t="inlineStr"/>
@@ -39517,7 +39517,7 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>부총장,예술부총장</t>
+          <t>예술부총장,부총장</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
@@ -40055,7 +40055,7 @@
       </c>
       <c r="F505" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G505" t="inlineStr">
@@ -42298,7 +42298,7 @@
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>과장,사무소장,중앙위원,실장,부원,상무위원,부장,참사</t>
+          <t>중앙위원,과장,실장,부장,참사,사무소장,상무위원,부원</t>
         </is>
       </c>
       <c r="J534" t="inlineStr"/>
@@ -43840,17 +43840,17 @@
       </c>
       <c r="G552" t="inlineStr">
         <is>
-          <t>위원장,초급당비서,위원장대리</t>
+          <t>위원장대리,초급당비서,위원장</t>
         </is>
       </c>
       <c r="H552" t="inlineStr">
         <is>
-          <t>부위원장,초급당부비서</t>
+          <t>초급당부비서,부위원장</t>
         </is>
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>과장,위원,참사</t>
+          <t>위원,과장,참사</t>
         </is>
       </c>
       <c r="J552" t="inlineStr"/>
@@ -44918,7 +44918,7 @@
       </c>
       <c r="I565" t="inlineStr">
         <is>
-          <t>지도위원,부실장,연구위원,서기장,연구원,실장,상급연구원,참사</t>
+          <t>부실장,실장,참사,상급연구원,연구위원,연구원,서기장,지도위원</t>
         </is>
       </c>
       <c r="J565" t="inlineStr"/>
@@ -45226,7 +45226,7 @@
       </c>
       <c r="I569" t="inlineStr">
         <is>
-          <t>위원,상임위원,서기장,부서기장</t>
+          <t>부서기장,서기장,위원,상임위원</t>
         </is>
       </c>
       <c r="J569" t="inlineStr"/>
@@ -45304,7 +45304,7 @@
       </c>
       <c r="G570" t="inlineStr">
         <is>
-          <t>위원장,중앙본부단장</t>
+          <t>중앙본부단장,위원장</t>
         </is>
       </c>
       <c r="H570" t="inlineStr">
@@ -45549,7 +45549,7 @@
       </c>
       <c r="H573" t="inlineStr">
         <is>
-          <t>부위원장,제1부위원장</t>
+          <t>제1부위원장,부위원장</t>
         </is>
       </c>
       <c r="I573" t="inlineStr"/>
@@ -45629,7 +45629,7 @@
       </c>
       <c r="H574" t="inlineStr">
         <is>
-          <t>부위원장,제1부위원장</t>
+          <t>제1부위원장,부위원장</t>
         </is>
       </c>
       <c r="I574" t="inlineStr">
@@ -45718,7 +45718,7 @@
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>명예위원장,서기장</t>
+          <t>서기장,명예위원장</t>
         </is>
       </c>
       <c r="J575" t="inlineStr"/>
@@ -46115,11 +46115,7 @@
           <t>위원장</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>부위원장</t>
-        </is>
-      </c>
+      <c r="H580" t="inlineStr"/>
       <c r="I580" t="inlineStr">
         <is>
           <t>서기</t>
@@ -47615,7 +47611,7 @@
       </c>
       <c r="F602" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G602" t="inlineStr">
@@ -51584,12 +51580,12 @@
       </c>
       <c r="G657" t="inlineStr">
         <is>
-          <t>위원장,회장</t>
+          <t>회장,위원장</t>
         </is>
       </c>
       <c r="H657" t="inlineStr">
         <is>
-          <t>부위원장,부회장</t>
+          <t>부회장,부위원장</t>
         </is>
       </c>
       <c r="I657" t="inlineStr">
@@ -56488,17 +56484,17 @@
       </c>
       <c r="G725" t="inlineStr">
         <is>
-          <t>위원장,회장</t>
+          <t>회장,위원장</t>
         </is>
       </c>
       <c r="H725" t="inlineStr">
         <is>
-          <t>부위원장,부회장</t>
+          <t>부회장,부위원장</t>
         </is>
       </c>
       <c r="I725" t="inlineStr">
         <is>
-          <t>최고고문,고문,상무위원</t>
+          <t>최고고문,상무위원,고문</t>
         </is>
       </c>
       <c r="J725" t="inlineStr"/>
@@ -57928,7 +57924,7 @@
       </c>
       <c r="G745" t="inlineStr">
         <is>
-          <t>총사장,이사,이사장</t>
+          <t>총사장,이사장,이사</t>
         </is>
       </c>
       <c r="H745" t="inlineStr">
@@ -58377,17 +58373,17 @@
       </c>
       <c r="G751" t="inlineStr">
         <is>
-          <t>위원장,제1위원장</t>
+          <t>제1위원장,위원장</t>
         </is>
       </c>
       <c r="H751" t="inlineStr">
         <is>
-          <t>부위원장,제1부위원장</t>
+          <t>제1부위원장,부위원장</t>
         </is>
       </c>
       <c r="I751" t="inlineStr">
         <is>
-          <t>위원,대의원,참사</t>
+          <t>대의원,위원,참사</t>
         </is>
       </c>
       <c r="J751" t="inlineStr"/>
@@ -58576,12 +58572,12 @@
       </c>
       <c r="F754" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G754" t="inlineStr">
         <is>
-          <t>위원장,비서</t>
+          <t>비서,위원장</t>
         </is>
       </c>
       <c r="H754" t="inlineStr">
@@ -58805,7 +58801,7 @@
       </c>
       <c r="G757" t="inlineStr">
         <is>
-          <t>위원장,1비서,비서</t>
+          <t>위원장,비서,1비서</t>
         </is>
       </c>
       <c r="H757" t="inlineStr"/>
@@ -58881,7 +58877,7 @@
       </c>
       <c r="G758" t="inlineStr">
         <is>
-          <t>위원장,1비서,비서</t>
+          <t>위원장,비서,1비서</t>
         </is>
       </c>
       <c r="H758" t="inlineStr">
@@ -58891,7 +58887,7 @@
       </c>
       <c r="I758" t="inlineStr">
         <is>
-          <t>4비서,5비서,서기,3비서,부장,대학생담당비서</t>
+          <t>부장,대학생담당비서,3비서,4비서,서기,5비서</t>
         </is>
       </c>
       <c r="J758" t="inlineStr"/>
@@ -59709,7 +59705,7 @@
       </c>
       <c r="G769" t="inlineStr">
         <is>
-          <t>총국장,국장</t>
+          <t>국장,총국장</t>
         </is>
       </c>
       <c r="H769" t="inlineStr">
@@ -59861,7 +59857,7 @@
       </c>
       <c r="G771" t="inlineStr">
         <is>
-          <t>부장,사령관</t>
+          <t>사령관,부장</t>
         </is>
       </c>
       <c r="H771" t="inlineStr">
@@ -60565,7 +60561,7 @@
       </c>
       <c r="G780" t="inlineStr">
         <is>
-          <t>위원장,초급당비서</t>
+          <t>초급당비서,위원장</t>
         </is>
       </c>
       <c r="H780" t="inlineStr">
@@ -60737,12 +60733,12 @@
       </c>
       <c r="G782" t="inlineStr">
         <is>
-          <t>위원장,초급당비서</t>
+          <t>초급당비서,위원장</t>
         </is>
       </c>
       <c r="H782" t="inlineStr">
         <is>
-          <t>부위원장,제1부위원장</t>
+          <t>제1부위원장,부위원장</t>
         </is>
       </c>
       <c r="I782" t="inlineStr">
@@ -61329,7 +61325,7 @@
       </c>
       <c r="G789" t="inlineStr">
         <is>
-          <t>위원장,초급당비서</t>
+          <t>초급당비서,위원장</t>
         </is>
       </c>
       <c r="H789" t="inlineStr">
@@ -61499,7 +61495,7 @@
       </c>
       <c r="I791" t="inlineStr">
         <is>
-          <t>위원,서기장</t>
+          <t>서기장,위원</t>
         </is>
       </c>
       <c r="J791" t="inlineStr"/>
@@ -62163,7 +62159,7 @@
       </c>
       <c r="I799" t="inlineStr">
         <is>
-          <t>서기,상무위원</t>
+          <t>상무위원,서기</t>
         </is>
       </c>
       <c r="J799" t="inlineStr"/>
@@ -62246,12 +62242,12 @@
       </c>
       <c r="H800" t="inlineStr">
         <is>
-          <t>집행부위원장,부위원장</t>
+          <t>부위원장,집행부위원장</t>
         </is>
       </c>
       <c r="I800" t="inlineStr">
         <is>
-          <t>자문위원,서기장,부서기장,상무위원,위원,책임지도원,서기국장</t>
+          <t>서기국장,위원,책임지도원,상무위원,부서기장,자문위원,서기장</t>
         </is>
       </c>
       <c r="J800" t="inlineStr"/>
@@ -63241,12 +63237,12 @@
       </c>
       <c r="G812" t="inlineStr">
         <is>
-          <t>위원장,초급당비서</t>
+          <t>초급당비서,위원장</t>
         </is>
       </c>
       <c r="H812" t="inlineStr">
         <is>
-          <t>부위원장,제1부위원장</t>
+          <t>제1부위원장,부위원장</t>
         </is>
       </c>
       <c r="I812" t="inlineStr">
@@ -63919,7 +63915,7 @@
       </c>
       <c r="I820" t="inlineStr">
         <is>
-          <t>사무총장,참사,서기장</t>
+          <t>서기장,사무총장,참사</t>
         </is>
       </c>
       <c r="J820" t="inlineStr"/>
@@ -64166,7 +64162,7 @@
       </c>
       <c r="H823" t="inlineStr">
         <is>
-          <t>부위원장,제1부위원장</t>
+          <t>제1부위원장,부위원장</t>
         </is>
       </c>
       <c r="I823" t="inlineStr">
@@ -65098,12 +65094,12 @@
       </c>
       <c r="H834" t="inlineStr">
         <is>
-          <t>부위원장,제1부위원장</t>
+          <t>제1부위원장,부위원장</t>
         </is>
       </c>
       <c r="I834" t="inlineStr">
         <is>
-          <t>실장,서기장</t>
+          <t>서기장,실장</t>
         </is>
       </c>
       <c r="J834" t="inlineStr"/>
@@ -67188,7 +67184,7 @@
       </c>
       <c r="F860" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G860" t="inlineStr">
@@ -67256,7 +67252,7 @@
       </c>
       <c r="F861" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G861" t="inlineStr"/>
@@ -67788,7 +67784,7 @@
       </c>
       <c r="F869" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G869" t="inlineStr">
@@ -67862,7 +67858,7 @@
       </c>
       <c r="H870" t="inlineStr">
         <is>
-          <t>부위원장,제1부위원장</t>
+          <t>제1부위원장,부위원장</t>
         </is>
       </c>
       <c r="I870" t="inlineStr"/>
@@ -67924,7 +67920,7 @@
       </c>
       <c r="F871" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G871" t="inlineStr"/>
@@ -67998,7 +67994,7 @@
       </c>
       <c r="H872" t="inlineStr">
         <is>
-          <t>부사장,제1부사장</t>
+          <t>제1부사장,부사장</t>
         </is>
       </c>
       <c r="I872" t="inlineStr">
@@ -68128,7 +68124,7 @@
       </c>
       <c r="F874" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G874" t="inlineStr"/>
@@ -68324,7 +68320,7 @@
       </c>
       <c r="F877" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G877" t="inlineStr">
@@ -68397,7 +68393,7 @@
       </c>
       <c r="G878" t="inlineStr">
         <is>
-          <t>사령관,참모장</t>
+          <t>참모장,사령관</t>
         </is>
       </c>
       <c r="H878" t="inlineStr">
@@ -68464,7 +68460,7 @@
       </c>
       <c r="F879" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G879" t="inlineStr">
@@ -68536,7 +68532,7 @@
       </c>
       <c r="F880" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G880" t="inlineStr">
@@ -68604,7 +68600,7 @@
       </c>
       <c r="F881" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G881" t="inlineStr">
@@ -68672,7 +68668,7 @@
       </c>
       <c r="F882" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G882" t="inlineStr">
@@ -68740,12 +68736,12 @@
       </c>
       <c r="F883" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G883" t="inlineStr">
         <is>
-          <t>총국장,국장</t>
+          <t>국장,총국장</t>
         </is>
       </c>
       <c r="H883" t="inlineStr"/>
@@ -68872,7 +68868,7 @@
       </c>
       <c r="F885" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G885" t="inlineStr">
@@ -68940,7 +68936,7 @@
       </c>
       <c r="F886" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G886" t="inlineStr">
@@ -69008,7 +69004,7 @@
       </c>
       <c r="F887" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G887" t="inlineStr">
@@ -69076,7 +69072,7 @@
       </c>
       <c r="F888" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G888" t="inlineStr">
@@ -69148,7 +69144,7 @@
       </c>
       <c r="F889" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G889" t="inlineStr">
@@ -69220,7 +69216,7 @@
       </c>
       <c r="F890" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G890" t="inlineStr">
@@ -69288,12 +69284,12 @@
       </c>
       <c r="F891" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G891" t="inlineStr">
         <is>
-          <t>부장,조직부국장</t>
+          <t>조직부국장,부장</t>
         </is>
       </c>
       <c r="H891" t="inlineStr"/>
@@ -69356,7 +69352,7 @@
       </c>
       <c r="F892" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G892" t="inlineStr">
@@ -69424,7 +69420,7 @@
       </c>
       <c r="F893" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G893" t="inlineStr">
@@ -69492,7 +69488,7 @@
       </c>
       <c r="F894" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G894" t="inlineStr">
@@ -69560,7 +69556,7 @@
       </c>
       <c r="F895" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G895" t="inlineStr">
@@ -69628,7 +69624,7 @@
       </c>
       <c r="F896" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G896" t="inlineStr">
@@ -69696,7 +69692,7 @@
       </c>
       <c r="F897" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G897" t="inlineStr">
